--- a/Geobacillus_simulation_results/2,3-butanediol_production_optimization/simulations_Gicigianus_BTD.xlsx
+++ b/Geobacillus_simulation_results/2,3-butanediol_production_optimization/simulations_Gicigianus_BTD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\supplementary last\Geobacillus_simulation_results\2,3-butanediol_production_optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E92C6D7-65D8-4C06-BF05-07DB63F4C0A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMOMA" sheetId="1" r:id="rId1"/>
@@ -180,9 +186,6 @@
   </si>
   <si>
     <t>growth rate</t>
-  </si>
-  <si>
-    <t>production of 2,3-butanediol (mmol/gDCW/h)</t>
   </si>
   <si>
     <r>
@@ -212,11 +215,14 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>production of 2,3-butanediol (mmol gDCW^-1 h^-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,11 +313,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -319,8 +322,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,18 +600,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,35 +624,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>53</v>
+      <c r="B1" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>6.0640000000000001</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.376</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -654,21 +660,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>6.0640000000000001</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.376</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -676,9 +682,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -726,13 +732,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>6.24</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.36120000000000002</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -740,21 +746,21 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>6.24</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.36120000000000002</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -762,21 +768,21 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>6.14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.36130000000000001</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -784,21 +790,21 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>6.33</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>0.36299999999999999</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -806,35 +812,53 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>6.33</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>0.36299999999999999</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
@@ -842,24 +866,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -867,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,39 +891,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>53</v>
+      <c r="B1" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>5.6929999999999996</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0.32</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -928,9 +934,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
@@ -939,40 +945,40 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>5.1680000000000001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.29299999999999998</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -983,9 +989,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
@@ -994,58 +1000,58 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7"/>
       <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>6.32</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0.35</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1056,9 +1062,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1067,40 +1073,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>6.3</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>0.35</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1111,9 +1117,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1122,40 +1128,40 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="7"/>
       <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="7"/>
       <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>5.95</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>0.34</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1166,9 +1172,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1177,31 +1183,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="7"/>
       <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>5.95</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>0.34</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1212,9 +1218,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1223,31 +1229,31 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="7"/>
       <c r="E31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>6.5490000000000004</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>0.35699999999999998</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1258,9 +1264,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1269,49 +1275,49 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="7"/>
       <c r="E38" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>6.5469999999999997</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>0.35699999999999998</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1322,9 +1328,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
@@ -1333,49 +1339,49 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>6.4569999999999999</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>0.35899999999999999</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1386,9 +1392,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
         <v>23</v>
       </c>
@@ -1397,18 +1403,18 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="7"/>
       <c r="E48" s="3" t="s">
         <v>26</v>
@@ -1416,30 +1422,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1447,17 +1429,41 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,26 +1476,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>53</v>
+      <c r="B1" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1520,13 +1526,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>4.1159999999999997</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.41099999999999998</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1534,9 +1540,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
